--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,9 +451,19 @@
           <t>Carlos</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>67998369526</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
-          <t>67998369526</t>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>67998569598</t>
         </is>
       </c>
     </row>

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,26 +444,26 @@
           <t>Telefone</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Carlos</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>67998369526</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>67998569598</t>
+          <t>carlos</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6798989898</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
